--- a/Data Komilis.xlsx
+++ b/Data Komilis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hravoaha\Desktop\Thèse\composting code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C995D841-F69C-4C4E-8B6F-63EF13F822F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9CD06F-CFCE-4B27-AA50-27AD97286E81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2" xr2:uid="{14B8D0C9-091E-43B5-9C59-8A05020574F1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{14B8D0C9-091E-43B5-9C59-8A05020574F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Composition of waste" sheetId="4" r:id="rId1"/>
@@ -25927,8 +25927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DF1B96-6F36-403A-A03F-B41BA123E54D}">
   <dimension ref="A1:CD106"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" activeCellId="4" sqref="B4:C4 B8:C8 B10:C10 B15:C15 B20:C21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50349,13 +50349,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13E0657-BE6C-45BC-B891-D54361BD0D37}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" activeCellId="1" sqref="A1:C7 A22:C22"/>
+    <sheetView zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.08984375" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="3" max="3" width="10.90625" customWidth="1"/>
     <col min="4" max="4" width="24.453125" customWidth="1"/>
